--- a/数据存储描述表.xlsx
+++ b/数据存储描述表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clutch\Desktop\data_labeling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA65F0-C8B4-4353-8242-F74C5961F21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,178 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+  <si>
+    <t>数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据元素别名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储系统的用户的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非主属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名，密码，账户余额，用户星级，手机号，性别，各种任务数量，标注偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储所有的任务信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布者id，任务名称，数据类型，任务组数，任务每组人数，任务描述，任务数据条数，任务星级，任务单价，任务发布时间，任务招募截止时间，任务开始时间，任务截止时间，任务状态，任务数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储所有任务的参与用户的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号，标注者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组号，已完成标注数量，任务评分，结果反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有新用户注册的时候会在这张表上添加一条记录，其中一些字段会随着用户行为发生变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当任务发布者发布一条新任务时会在这张表上添加一条记录，任务状态相关的字段会根据时间变化而变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张表动态的记录了用户参与任务的情况，可以用作备份来恢复不正常的退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储所有任务的备选标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储标注者对任务中每个标注问题的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号，标注者id，题号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +203,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,15 +245,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +613,570 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12.94921875" customWidth="1"/>
+    <col min="4" max="4" width="25.296875" customWidth="1"/>
+    <col min="9" max="9" width="52.94921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据存储描述表.xlsx
+++ b/数据存储描述表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clutch\Desktop\data_labeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA65F0-C8B4-4353-8242-F74C5961F21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E2B35-B03F-422C-A317-57343E9D6C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>数据存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,26 @@
   </si>
   <si>
     <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户（DSTR1）、用户历史（DSTR1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务（DSTR3）、任务要求（DSTR4）、任务状态（DSTR5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务的分配（DSTR6）、反馈信息（DSTR7）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签（DSTR8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果（DSTR9）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,6 +323,10 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,13 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,6 +349,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -628,493 +648,556 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="13"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:I38"/>
     <mergeCell ref="A35:B35"/>
@@ -1122,59 +1205,6 @@
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:I37"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
